--- a/Clients.xlsx
+++ b/Clients.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\PYCharms\PhoneDivert Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hashir\Desktop\Upwork\Python\PhoneDivert Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B3CA07-0908-43BD-AFED-857AF8A8037B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8840C7-C1A7-42CF-8471-B2FF0E86D244}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,20 +450,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -480,7 +480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -494,7 +494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -508,7 +508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -522,7 +522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -536,7 +536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -564,7 +564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -592,7 +592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -606,7 +606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -620,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -634,7 +634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -648,7 +648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -676,7 +676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -690,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -704,7 +704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -732,7 +732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -746,7 +746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -760,7 +760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -788,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -802,7 +802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -816,7 +816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -830,7 +830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -872,7 +872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -884,11 +884,6 @@
       </c>
       <c r="E30">
         <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1019064</v>
       </c>
     </row>
   </sheetData>

--- a/Clients.xlsx
+++ b/Clients.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hashir\Desktop\Upwork\Python\PhoneDivert Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Umair Hussain\Desktop\Work\phoneDiretory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8840C7-C1A7-42CF-8471-B2FF0E86D244}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="765" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Client</t>
   </si>
@@ -138,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,21 +448,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -480,413 +479,402 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>88456</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>91272</v>
       </c>
-      <c r="E2">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>94551</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>93183</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>90617</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>75439</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>88845</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>93182</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>94624</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>67712</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>17106</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>94552</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>88690</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>72277</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>94601</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>78009</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>94462</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>88456</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>93183</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>94551</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>93183</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>90617</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>75439</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>88845</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>93182</v>
-      </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>94624</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>67712</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>17106</v>
-      </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>94552</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>88690</v>
-      </c>
-      <c r="E15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>72277</v>
-      </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>94601</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D19">
+        <v>89561</v>
+      </c>
+      <c r="E19">
         <v>18</v>
       </c>
-      <c r="D18">
-        <v>78009</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>90678</v>
+      </c>
+      <c r="E20">
         <v>19</v>
       </c>
-      <c r="D19">
-        <v>94462</v>
-      </c>
-      <c r="E19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>89561</v>
-      </c>
-      <c r="E20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>90678</v>
+        <v>67256</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>72281</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>89563</v>
+      </c>
+      <c r="E23">
         <v>22</v>
       </c>
-      <c r="D22">
-        <v>67256</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>89627</v>
+      </c>
+      <c r="E24">
         <v>23</v>
       </c>
-      <c r="D23">
-        <v>72281</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>89680</v>
+      </c>
+      <c r="E25">
         <v>24</v>
       </c>
-      <c r="D24">
-        <v>89563</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>90772</v>
+      </c>
+      <c r="E26">
         <v>25</v>
       </c>
-      <c r="D25">
-        <v>89627</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>78078</v>
+      </c>
+      <c r="E27">
         <v>26</v>
       </c>
-      <c r="D26">
-        <v>89680</v>
-      </c>
-      <c r="E26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>90877</v>
+      </c>
+      <c r="E28">
         <v>27</v>
       </c>
-      <c r="D27">
-        <v>90772</v>
-      </c>
-      <c r="E27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>93239</v>
+      </c>
+      <c r="E29">
         <v>28</v>
       </c>
-      <c r="D28">
-        <v>78078</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29">
-        <v>90877</v>
-      </c>
-      <c r="E29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30">
-        <v>93239</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E29">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Clients.xlsx
+++ b/Clients.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Umair Hussain\Desktop\Work\phoneDiretory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hashir\Desktop\Upwork\Python\phoneDiretory\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8044E501-44CF-47AE-AEC5-E2055DA351EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="765" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -137,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,21 +443,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E6" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -479,7 +474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -490,10 +485,10 @@
         <v>88456</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -504,10 +499,10 @@
         <v>91272</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -518,10 +513,10 @@
         <v>94551</v>
       </c>
       <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -532,10 +527,10 @@
         <v>93183</v>
       </c>
       <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -546,10 +541,10 @@
         <v>90617</v>
       </c>
       <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -560,10 +555,10 @@
         <v>75439</v>
       </c>
       <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -574,10 +569,10 @@
         <v>88845</v>
       </c>
       <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -588,10 +583,10 @@
         <v>93182</v>
       </c>
       <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -602,10 +597,10 @@
         <v>94624</v>
       </c>
       <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -616,10 +611,10 @@
         <v>67712</v>
       </c>
       <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -630,10 +625,10 @@
         <v>17106</v>
       </c>
       <c r="E12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -644,10 +639,10 @@
         <v>94552</v>
       </c>
       <c r="E13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -658,10 +653,10 @@
         <v>88690</v>
       </c>
       <c r="E14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -672,10 +667,10 @@
         <v>72277</v>
       </c>
       <c r="E15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -686,10 +681,10 @@
         <v>94601</v>
       </c>
       <c r="E16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -700,10 +695,10 @@
         <v>78009</v>
       </c>
       <c r="E17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -714,10 +709,10 @@
         <v>94462</v>
       </c>
       <c r="E18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -728,10 +723,10 @@
         <v>89561</v>
       </c>
       <c r="E19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -742,10 +737,10 @@
         <v>90678</v>
       </c>
       <c r="E20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -756,10 +751,10 @@
         <v>67256</v>
       </c>
       <c r="E21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -770,10 +765,10 @@
         <v>72281</v>
       </c>
       <c r="E22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -784,10 +779,10 @@
         <v>89563</v>
       </c>
       <c r="E23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -798,10 +793,10 @@
         <v>89627</v>
       </c>
       <c r="E24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -812,10 +807,10 @@
         <v>89680</v>
       </c>
       <c r="E25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -826,10 +821,10 @@
         <v>90772</v>
       </c>
       <c r="E26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -840,10 +835,10 @@
         <v>78078</v>
       </c>
       <c r="E27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -854,10 +849,10 @@
         <v>90877</v>
       </c>
       <c r="E28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -868,11 +863,11 @@
         <v>93239</v>
       </c>
       <c r="E29">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E29">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
